--- a/Datos/Estaciones.xlsx
+++ b/Datos/Estaciones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2444F582-C761-443F-A12C-136F9C845CF2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{801FCE90-4C98-40B0-89C5-BD2A90564513}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="193">
   <si>
     <t>Estacion</t>
   </si>
@@ -604,21 +604,16 @@
   </si>
   <si>
     <t>3.490783, -76.491808</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -76,526217
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -76,531692
-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,6 +646,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -672,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -698,8 +710,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,15 +1006,15 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="B53" sqref="B52:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33" style="11" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" customWidth="1"/>
   </cols>
@@ -1007,7 +1029,7 @@
       <c r="C1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1021,13 +1043,13 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="12">
         <v>-76.510040000000004</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="12">
         <v>3.4703409999999999</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1041,13 +1063,13 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="12">
         <v>-76.507180000000005</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="12">
         <v>3.4731580000000002</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1061,13 +1083,13 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="12">
         <v>-76.501632999999998</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="12">
         <v>3.4786239999999999</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1081,13 +1103,13 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="12">
         <v>-76.498469</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="12">
         <v>3.4810180000000002</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1101,13 +1123,13 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="12">
         <v>-76.537199999999999</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="12">
         <v>3.3707379999999998</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1121,13 +1143,13 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="12">
         <v>-76.548022000000003</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="12">
         <v>3.4142709999999998</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1141,13 +1163,13 @@
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="12">
         <v>-76.529758000000001</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="12">
         <v>3.4473729999999998</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1161,13 +1183,13 @@
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="12">
         <v>-76.531341999999995</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="12">
         <v>3.4526729999999999</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1181,13 +1203,13 @@
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="12">
         <v>-76.527185000000003</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="12">
         <v>3.4610720000000001</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1201,13 +1223,13 @@
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="12">
         <v>-76.525118000000006</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="12">
         <v>3.463689</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1221,13 +1243,13 @@
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="12">
         <v>-76.519599999999997</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="12">
         <v>3.4744790000000001</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1241,13 +1263,13 @@
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="12">
         <v>-76.516757999999996</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="12">
         <v>3.4786760000000001</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1261,13 +1283,13 @@
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="12">
         <v>-76.513233999999997</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="12">
         <v>3.4844909999999998</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1281,13 +1303,13 @@
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="12">
         <v>-76.522727000000003</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="12">
         <v>3.439724</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1301,13 +1323,13 @@
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="12">
         <v>-76.517583000000002</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="12">
         <v>3.437252</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1321,13 +1343,13 @@
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="12">
         <v>-76.510138999999995</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="12">
         <v>3.432118</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1341,13 +1363,13 @@
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="12">
         <v>-76.510255000000001</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="12">
         <v>3.4322010000000001</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1361,13 +1383,13 @@
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="12">
         <v>-76.505352999999999</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="12">
         <v>3.4272279999999999</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1381,13 +1403,13 @@
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="12">
         <v>-76.494517000000002</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="12">
         <v>3.4246750000000001</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1401,13 +1423,13 @@
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="12">
         <v>-76.490814999999998</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="12">
         <v>3.4217939999999998</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1421,13 +1443,13 @@
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="12">
         <v>-76.486914999999996</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="12">
         <v>3.4185249999999998</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1441,13 +1463,13 @@
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="12">
         <v>-76.508008000000004</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="12">
         <v>3.4895239999999998</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1461,13 +1483,13 @@
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="12">
         <v>-76.549306000000001</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="12">
         <v>3.4146040000000002</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1481,13 +1503,13 @@
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="12">
         <v>-76.482879999999994</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="12">
         <v>3.443902</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1501,13 +1523,13 @@
       <c r="A26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="12">
         <v>-76.492765000000006</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="12">
         <v>3.4899399999999998</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1521,13 +1543,13 @@
       <c r="A27" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="12">
         <v>-76.491808000000006</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="12">
         <v>3.490783</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1541,13 +1563,13 @@
       <c r="A28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="12">
         <v>-76.500673000000006</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="12">
         <v>3.4265859999999999</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1561,13 +1583,13 @@
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="12">
         <v>-76.500091999999995</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="12">
         <v>3.427289</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -1581,13 +1603,13 @@
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="12">
         <v>-76.537015999999994</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="12">
         <v>3.3714590000000002</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -1601,13 +1623,13 @@
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="12">
         <v>-76.539890999999997</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="12">
         <v>3.3725420000000002</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -1621,13 +1643,13 @@
       <c r="A32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="12">
         <v>-76.542446999999996</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="12">
         <v>3.3770250000000002</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -1641,13 +1663,13 @@
       <c r="A33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="12">
         <v>-76.544926000000004</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="12">
         <v>3.3878740000000001</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1661,13 +1683,13 @@
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="12">
         <v>-76.545980999999998</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="12">
         <v>3.394333</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -1681,13 +1703,13 @@
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="12">
         <v>-76.546385000000001</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="12">
         <v>3.3989410000000002</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -1701,13 +1723,13 @@
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="12">
         <v>-76.546670000000006</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="12">
         <v>3.4036369999999998</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -1721,13 +1743,13 @@
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="12">
         <v>-76.547569999999993</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="12">
         <v>3.4095589999999998</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -1741,13 +1763,13 @@
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="12">
         <v>-76.548334999999994</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="12">
         <v>3.4192979999999999</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -1761,13 +1783,13 @@
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="12">
         <v>-76.546916999999993</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="12">
         <v>3.4236949999999999</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -1781,13 +1803,13 @@
       <c r="A40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="12">
         <v>-76.542953999999995</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="12">
         <v>3.4321790000000001</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -1801,13 +1823,13 @@
       <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="12">
         <v>-76.540879000000004</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="12">
         <v>3.434815</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -1821,13 +1843,13 @@
       <c r="A42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="12">
         <v>-76.537329</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="12">
         <v>3.4395690000000001</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -1841,13 +1863,13 @@
       <c r="A43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="12">
         <v>-76.532599000000005</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="12">
         <v>3.4422739999999998</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -1861,13 +1883,13 @@
       <c r="A44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="12">
         <v>-76.527276000000001</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="12">
         <v>3.4426999999999999</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -1881,13 +1903,13 @@
       <c r="A45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="12">
         <v>-76.520537000000004</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="12">
         <v>3.4441600000000001</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -1901,13 +1923,13 @@
       <c r="A46" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="12">
         <v>-76.514527999999999</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="12">
         <v>3.4452820000000002</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -1921,13 +1943,13 @@
       <c r="A47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="12">
         <v>-76.508486000000005</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="12">
         <v>3.4448560000000001</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -1941,13 +1963,13 @@
       <c r="A48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="12">
         <v>-76.502303999999995</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="12">
         <v>3.4444469999999998</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -1961,13 +1983,13 @@
       <c r="A49" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="12">
         <v>-76.498957000000004</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="12">
         <v>3.4439120000000001</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -1981,13 +2003,13 @@
       <c r="A50" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="12">
         <v>-76.495999999999995</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="12">
         <v>3.4435880000000001</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -2001,13 +2023,13 @@
       <c r="A51" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="12">
         <v>-76.487301000000002</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="12">
         <v>3.4451830000000001</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -2021,13 +2043,13 @@
       <c r="A52" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="B52" s="13">
+        <v>-76.526217000000003</v>
+      </c>
+      <c r="C52" s="12">
         <v>3.4434239999999998</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -2041,13 +2063,13 @@
       <c r="A53" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="13">
         <v>-76.526238000000006</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="12">
         <v>3.4434300000000002</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -2061,13 +2083,13 @@
       <c r="A54" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="12">
         <v>-76.530257000000006</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="12">
         <v>3.4548890000000001</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -2081,13 +2103,13 @@
       <c r="A55" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="12">
         <v>-76.530306999999993</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="12">
         <v>3.456734</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -2101,13 +2123,13 @@
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="12">
         <v>-76.528711999999999</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="12">
         <v>3.44312</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -2121,13 +2143,13 @@
       <c r="A57" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="12">
         <v>-76.530001999999996</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="12">
         <v>3.4481220000000001</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -2141,13 +2163,13 @@
       <c r="A58" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" s="1">
+      <c r="B58" s="12">
+        <v>-76.531692000000007</v>
+      </c>
+      <c r="C58" s="12">
         <v>3.453767</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -2161,13 +2183,13 @@
       <c r="A59" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="12">
         <v>-76.525133999999994</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="12">
         <v>3.4605760000000001</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -2181,13 +2203,13 @@
       <c r="A60" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="12">
         <v>-76.525847999999996</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="12">
         <v>3.4585219999999999</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -2201,13 +2223,13 @@
       <c r="A61" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="12">
         <v>-76.522587000000001</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="12">
         <v>3.460064</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -2221,13 +2243,13 @@
       <c r="A62" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="12">
         <v>-76.517323000000005</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="12">
         <v>3.4629240000000001</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -2241,13 +2263,13 @@
       <c r="A63" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="12">
         <v>-76.513439000000005</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="12">
         <v>3.466148</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -2261,11 +2283,13 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="10"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F63" xr:uid="{875A35F7-DA32-4D3F-9B82-BBE5D114D010}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos/Estaciones.xlsx
+++ b/Datos/Estaciones.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6589A393-ECF2-404D-A121-5EE3B5EE0F09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD038DB-93E7-4C2F-9FE6-DD32EA3FD237}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$C$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$C$61</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -224,10 +224,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +239,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -264,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -281,6 +290,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +594,7 @@
     <col min="3" max="3" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -585,7 +605,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -596,7 +616,7 @@
         <v>3.4703409999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -607,7 +627,7 @@
         <v>3.4731580000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -618,7 +638,7 @@
         <v>3.4786239999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -629,648 +649,648 @@
         <v>3.4810180000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>-76.537199999999999</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3.3707379999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-76.548022000000003</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3.4142709999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>-76.548022000000003</v>
+        <v>-76.529758000000001</v>
       </c>
       <c r="C7" s="4">
-        <v>3.4142709999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4473729999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>-76.529758000000001</v>
+        <v>-76.531341999999995</v>
       </c>
       <c r="C8" s="4">
-        <v>3.4473729999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4526729999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>-76.531341999999995</v>
+        <v>-76.527185000000003</v>
       </c>
       <c r="C9" s="4">
-        <v>3.4526729999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4610720000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>-76.527185000000003</v>
+        <v>-76.525118000000006</v>
       </c>
       <c r="C10" s="4">
-        <v>3.4610720000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.463689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>-76.525118000000006</v>
+        <v>-76.519599999999997</v>
       </c>
       <c r="C11" s="4">
-        <v>3.463689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4744790000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>-76.519599999999997</v>
+        <v>-76.516757999999996</v>
       </c>
       <c r="C12" s="4">
-        <v>3.4744790000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4786760000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>-76.516757999999996</v>
+        <v>-76.513233999999997</v>
       </c>
       <c r="C13" s="4">
-        <v>3.4786760000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4844909999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>-76.513233999999997</v>
+        <v>-76.522727000000003</v>
       </c>
       <c r="C14" s="4">
-        <v>3.4844909999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.439724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
-        <v>-76.522727000000003</v>
+        <v>-76.517583000000002</v>
       </c>
       <c r="C15" s="4">
-        <v>3.439724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.437252</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>-76.517583000000002</v>
+        <v>-76.510138999999995</v>
       </c>
       <c r="C16" s="4">
-        <v>3.437252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.432118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>-76.510138999999995</v>
+        <v>-76.510255000000001</v>
       </c>
       <c r="C17" s="4">
-        <v>3.432118</v>
+        <v>3.4322010000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
-        <v>-76.510255000000001</v>
+        <v>-76.505352999999999</v>
       </c>
       <c r="C18" s="4">
-        <v>3.4322010000000001</v>
+        <v>3.4272279999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4">
-        <v>-76.505352999999999</v>
+        <v>-76.494517000000002</v>
       </c>
       <c r="C19" s="4">
-        <v>3.4272279999999999</v>
+        <v>3.4246750000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
-        <v>-76.494517000000002</v>
-      </c>
-      <c r="C20" s="4">
-        <v>3.4246750000000001</v>
+        <v>-76.490814999999998</v>
+      </c>
+      <c r="C20" s="9">
+        <v>3.4217939999999998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
-        <v>-76.490814999999998</v>
+        <v>-76.486914999999996</v>
       </c>
       <c r="C21" s="4">
-        <v>3.4217939999999998</v>
+        <v>3.4185249999999998</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>-76.486914999999996</v>
+        <v>-76.508008000000004</v>
       </c>
       <c r="C22" s="4">
-        <v>3.4185249999999998</v>
+        <v>3.4895239999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4">
-        <v>-76.508008000000004</v>
+        <v>-76.549306000000001</v>
       </c>
       <c r="C23" s="4">
-        <v>3.4895239999999998</v>
+        <v>3.4146040000000002</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>-76.549306000000001</v>
+        <v>-76.482879999999994</v>
       </c>
       <c r="C24" s="4">
-        <v>3.4146040000000002</v>
+        <v>3.443902</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B25" s="4">
-        <v>-76.482879999999994</v>
+        <v>-76.492765000000006</v>
       </c>
       <c r="C25" s="4">
-        <v>3.443902</v>
+        <v>3.4899399999999998</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>63</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26" s="4">
-        <v>-76.492765000000006</v>
+        <v>-76.491808000000006</v>
       </c>
       <c r="C26" s="4">
-        <v>3.4899399999999998</v>
+        <v>3.490783</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>64</v>
+      <c r="A27" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>-76.491808000000006</v>
+        <v>-76.500673000000006</v>
       </c>
       <c r="C27" s="4">
-        <v>3.490783</v>
+        <v>3.4265859999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>25</v>
+      <c r="A28" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>-76.500673000000006</v>
+        <v>-76.500091999999995</v>
       </c>
       <c r="C28" s="4">
-        <v>3.4265859999999999</v>
+        <v>3.427289</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>-76.500091999999995</v>
+        <v>-76.537015999999994</v>
       </c>
       <c r="C29" s="4">
-        <v>3.427289</v>
+        <v>3.3714590000000002</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>-76.537015999999994</v>
+        <v>-76.539890999999997</v>
       </c>
       <c r="C30" s="4">
-        <v>3.3714590000000002</v>
+        <v>3.3725420000000002</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>-76.539890999999997</v>
+        <v>-76.542446999999996</v>
       </c>
       <c r="C31" s="4">
-        <v>3.3725420000000002</v>
+        <v>3.3770250000000002</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>-76.542446999999996</v>
+        <v>-76.544926000000004</v>
       </c>
       <c r="C32" s="4">
-        <v>3.3770250000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3878740000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>-76.544926000000004</v>
+        <v>-76.545980999999998</v>
       </c>
       <c r="C33" s="4">
-        <v>3.3878740000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.394333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>-76.545980999999998</v>
+        <v>-76.546385000000001</v>
       </c>
       <c r="C34" s="4">
-        <v>3.394333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3989410000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>-76.546385000000001</v>
+        <v>-76.546670000000006</v>
       </c>
       <c r="C35" s="4">
-        <v>3.3989410000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4036369999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>-76.546670000000006</v>
+        <v>-76.547569999999993</v>
       </c>
       <c r="C36" s="4">
-        <v>3.4036369999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4095589999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>-76.547569999999993</v>
+        <v>-76.548334999999994</v>
       </c>
       <c r="C37" s="4">
-        <v>3.4095589999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4192979999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>-76.548334999999994</v>
+        <v>-76.546916999999993</v>
       </c>
       <c r="C38" s="4">
-        <v>3.4192979999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4236949999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>-76.546916999999993</v>
-      </c>
-      <c r="C39" s="4">
-        <v>3.4236949999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-76.542953999999995</v>
+      </c>
+      <c r="C39" s="5">
+        <v>3.4321790000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>-76.542953999999995</v>
+        <v>-76.540879000000004</v>
       </c>
       <c r="C40" s="4">
-        <v>3.4321790000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.434815</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>-76.540879000000004</v>
+        <v>-76.537329</v>
       </c>
       <c r="C41" s="4">
-        <v>3.434815</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4395690000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>-76.537329</v>
+        <v>-76.532599000000005</v>
       </c>
       <c r="C42" s="4">
-        <v>3.4395690000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4422739999999998</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>-76.532599000000005</v>
+        <v>-76.527276000000001</v>
       </c>
       <c r="C43" s="4">
-        <v>3.4422739999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4426999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>-76.527276000000001</v>
+        <v>-76.520537000000004</v>
       </c>
       <c r="C44" s="4">
-        <v>3.4426999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4441600000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>-76.520537000000004</v>
+        <v>-76.514527999999999</v>
       </c>
       <c r="C45" s="4">
-        <v>3.4441600000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4452820000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>-76.514527999999999</v>
+        <v>-76.508486000000005</v>
       </c>
       <c r="C46" s="4">
-        <v>3.4452820000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4448560000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>-76.508486000000005</v>
+        <v>-76.502303999999995</v>
       </c>
       <c r="C47" s="4">
-        <v>3.4448560000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4444469999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>-76.502303999999995</v>
+        <v>-76.498957000000004</v>
       </c>
       <c r="C48" s="4">
-        <v>3.4444469999999998</v>
+        <v>3.4439120000000001</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>-76.498957000000004</v>
+        <v>-76.495999999999995</v>
       </c>
       <c r="C49" s="4">
-        <v>3.4439120000000001</v>
+        <v>3.4435880000000001</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>-76.495999999999995</v>
+        <v>-76.487301000000002</v>
       </c>
       <c r="C50" s="4">
-        <v>3.4435880000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4451830000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="4">
-        <v>-76.487301000000002</v>
+        <v>49</v>
+      </c>
+      <c r="B51" s="5">
+        <v>-76.526217000000003</v>
       </c>
       <c r="C51" s="4">
-        <v>3.4451830000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.4434239999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="5">
-        <v>-76.526217000000003</v>
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <v>-76.530257000000006</v>
       </c>
       <c r="C52" s="4">
-        <v>3.4434239999999998</v>
+        <v>3.4548890000000001</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="5">
-        <v>-76.526238000000006</v>
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>-76.530306999999993</v>
       </c>
       <c r="C53" s="4">
-        <v>3.4434300000000002</v>
+        <v>3.456734</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4">
-        <v>-76.530257000000006</v>
+        <v>-76.528711999999999</v>
       </c>
       <c r="C54" s="4">
-        <v>3.4548890000000001</v>
+        <v>3.44312</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4">
-        <v>-76.530306999999993</v>
+        <v>-76.530001999999996</v>
       </c>
       <c r="C55" s="4">
-        <v>3.456734</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4481220000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4">
-        <v>-76.528711999999999</v>
+        <v>-76.531692000000007</v>
       </c>
       <c r="C56" s="4">
-        <v>3.44312</v>
+        <v>3.453767</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4">
-        <v>-76.530001999999996</v>
+        <v>-76.525133999999994</v>
       </c>
       <c r="C57" s="4">
-        <v>3.4481220000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.4605760000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4">
-        <v>-76.531692000000007</v>
+        <v>-76.525847999999996</v>
       </c>
       <c r="C58" s="4">
-        <v>3.453767</v>
+        <v>3.4585219999999999</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4">
-        <v>-76.525133999999994</v>
+        <v>-76.522587000000001</v>
       </c>
       <c r="C59" s="4">
-        <v>3.4605760000000001</v>
+        <v>3.460064</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4">
-        <v>-76.525847999999996</v>
+        <v>-76.517323000000005</v>
       </c>
       <c r="C60" s="4">
-        <v>3.4585219999999999</v>
+        <v>3.4629240000000001</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4">
-        <v>-76.522587000000001</v>
+        <v>-76.513439000000005</v>
       </c>
       <c r="C61" s="4">
-        <v>3.460064</v>
+        <v>3.466148</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="4">
-        <v>-76.517323000000005</v>
-      </c>
-      <c r="C62" s="4">
-        <v>3.4629240000000001</v>
+        <v>50</v>
+      </c>
+      <c r="B62" s="7">
+        <v>-76.527744999999996</v>
+      </c>
+      <c r="C62" s="6">
+        <v>3448843</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B63" s="4">
-        <v>-76.513439000000005</v>
+        <v>-76.528591000000006</v>
       </c>
       <c r="C63" s="4">
-        <v>3.466148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+        <v>3.3667630000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
